--- a/source/guides/hrsa/uds-plus/observations-summary.xlsx
+++ b/source/guides/hrsa/uds-plus/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Profile</t>
   </si>
@@ -66,18 +66,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>uds-plus-sexual-orientation-observation</t>
-  </si>
-  <si>
-    <t>De-Identified UDS Plus Sexual Orientation</t>
-  </si>
-  <si>
-    <t>LOINC#76690-7</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
 </sst>
 </file>
@@ -211,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -287,41 +275,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
